--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H2">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1134997703383333</v>
+        <v>0.09800819415000002</v>
       </c>
       <c r="R2">
-        <v>1.021497933045</v>
+        <v>0.88207374735</v>
       </c>
       <c r="S2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="T2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>170.579399</v>
       </c>
       <c r="I3">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J3">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -638,10 +638,10 @@
         <v>31.929904801815</v>
       </c>
       <c r="S3">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="T3">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H4">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I4">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J4">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.10054979208</v>
+        <v>0.05786364631833334</v>
       </c>
       <c r="R4">
-        <v>0.90494812872</v>
+        <v>0.520772816865</v>
       </c>
       <c r="S4">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="T4">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.246467333333333</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H5">
-        <v>3.739402</v>
+        <v>2.343024</v>
       </c>
       <c r="I5">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J5">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.07777332926333333</v>
+        <v>0.04873099415999999</v>
       </c>
       <c r="R5">
-        <v>0.69995996337</v>
+        <v>0.4385789474399999</v>
       </c>
       <c r="S5">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="T5">
-        <v>0.01968460016973576</v>
+        <v>0.0128405486320577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.78513</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H6">
-        <v>5.35539</v>
+        <v>2.053846</v>
       </c>
       <c r="I6">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J6">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.11138318635</v>
+        <v>0.04271657372333333</v>
       </c>
       <c r="R6">
-        <v>1.00244867715</v>
+        <v>0.38444916351</v>
       </c>
       <c r="S6">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="T6">
-        <v>0.0281913286945349</v>
+        <v>0.01125575728023152</v>
       </c>
     </row>
   </sheetData>
